--- a/biology/Zoologie/Course_de_chiens_de_traîneaux_aux_Jeux_olympiques_de_1932/Course_de_chiens_de_traîneaux_aux_Jeux_olympiques_de_1932.xlsx
+++ b/biology/Zoologie/Course_de_chiens_de_traîneaux_aux_Jeux_olympiques_de_1932/Course_de_chiens_de_traîneaux_aux_Jeux_olympiques_de_1932.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Course_de_chiens_de_tra%C3%AEneaux_aux_Jeux_olympiques_de_1932</t>
+          <t>Course_de_chiens_de_traîneaux_aux_Jeux_olympiques_de_1932</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une course de chiens de traîneaux est incluse en tant que sport de démonstration aux Jeux olympiques d'hiver de 1932 à Lake Placid. 5 concurrents du Canada et 7 des États-Unis participent à la compétition. L'épreuve, courue sous les règles du New England Sled Dog Club, consiste à parcourir deux fois un parcours de plus de 40,5 km. Avec six chiens par traîneau, chaque traîneau part à trois minutes d'intervalle et des temps intermédiaires sont données aux mushers à 6,44 km, 17,06 km et 36,14 km.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Course_de_chiens_de_tra%C3%AEneaux_aux_Jeux_olympiques_de_1932</t>
+          <t>Course_de_chiens_de_traîneaux_aux_Jeux_olympiques_de_1932</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Qualification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norman D. Vaughan se qualifie pour l'épreuve à travers une course organisée par le New England Sled Dog Club à Wonalancet dans le New Hampshire en hiver 1932. 26 équipes sont inscrites à cette course de deux jours qui a lieu deux semaines avant les Jeux[1].
-Il a été pensé que Emile St. Godard serait incapable de participer à l'épreuve en raison d'un manque de soutien financier[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norman D. Vaughan se qualifie pour l'épreuve à travers une course organisée par le New England Sled Dog Club à Wonalancet dans le New Hampshire en hiver 1932. 26 équipes sont inscrites à cette course de deux jours qui a lieu deux semaines avant les Jeux.
+Il a été pensé que Emile St. Godard serait incapable de participer à l'épreuve en raison d'un manque de soutien financier.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Course_de_chiens_de_tra%C3%AEneaux_aux_Jeux_olympiques_de_1932</t>
+          <t>Course_de_chiens_de_traîneaux_aux_Jeux_olympiques_de_1932</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Course_de_chiens_de_tra%C3%AEneaux_aux_Jeux_olympiques_de_1932</t>
+          <t>Course_de_chiens_de_traîneaux_aux_Jeux_olympiques_de_1932</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Nations participantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un total de douze participants de deux pays participent à cette épreuve des Jeux de Lake Placid.
  Canada (5)
